--- a/biology/Botanique/Conceveiba_guianensis/Conceveiba_guianensis.xlsx
+++ b/biology/Botanique/Conceveiba_guianensis/Conceveiba_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conceveiba guianensis est une espèce de plantes à fleurs de la famille des Euphorbiaceae (famille du ricin). C'est un arbre sud-américain.
-Il est connu en Guyane sous les noms de Lebi udu[3], Kusisi, Agugamu (Nenge tongo), Wakavukamwi (Palikur), Mɨnɨyulã (Wayãpi)[4].
-Au Suriname, on le nomme Mabi, Witte hoedoe (Sranan tongo), Mababalli horiraro, Wadiehie koro (Arawak), Peierjan, Talemo méréhé, Harimenango, Jawareran (Karib), Koesoewé ocmattoe, Bakhie bakhie, Necochoeda (Saramaka)[5], ou encore Basra sali ou Man sali[4].
-Au Venezuela, on l'appelle Caniba, Caruana, Cocura, Nicolás, Palo de agua dulce, Palo de mata, Poatoru[6], et au Guyana Broad leaf hakia (Créole)[7].
+Il est connu en Guyane sous les noms de Lebi udu, Kusisi, Agugamu (Nenge tongo), Wakavukamwi (Palikur), Mɨnɨyulã (Wayãpi).
+Au Suriname, on le nomme Mabi, Witte hoedoe (Sranan tongo), Mababalli horiraro, Wadiehie koro (Arawak), Peierjan, Talemo méréhé, Harimenango, Jawareran (Karib), Koesoewé ocmattoe, Bakhie bakhie, Necochoeda (Saramaka), ou encore Basra sali ou Man sali.
+Au Venezuela, on l'appelle Caniba, Caruana, Cocura, Nicolás, Palo de agua dulce, Palo de mata, Poatoru, et au Guyana Broad leaf hakia (Créole).
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Conceveiba guianensis est un petit arbre haut de 3–15 m, à tronc droit, cylindrique, sans insertion de racine.
 Les feuilles sont coriaces ou membraneuses, glabrescente (quelques poils étoilés clairsemés des deux côtés).
@@ -534,7 +548,7 @@
 L'ovaire oblong-globuleux, obtus à 3 côtes, est tomenteux.
 Les styles sont longs de 6-7 mm, courtement connés à la base, persistants et fortement recourbés, très brièvement bifides, la face interne papilleuse à proximité de l'apex.
 Le fruit est une capsule ligneuse, subglobuleuse ou largement ellipsoïde, glabrescente (minuscules poils étoilés), trigone (carpelles carénés), longue de (1,8-)2-2,5 cm pour l0,7-1,3(-2) cm de large.
-La graines est lisse, longue 1 cm, avec une petite caroncule[5],[8],[6].
+La graines est lisse, longue 1 cm, avec une petite caroncule.
 </t>
         </is>
       </c>
@@ -563,9 +577,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre Conceveiba guianensis du Venezuela au Brésil en passant par le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou et la Bolivie[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre Conceveiba guianensis du Venezuela au Brésil en passant par le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou et la Bolivie.
 </t>
         </is>
       </c>
@@ -594,10 +610,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Conceveiba guianensis croît dans les forêts sempervirentes primaires ou perturbées du Venezuela, autour de 50–1 000 m d'altitude[6], et dans le sous-étage des forêts de terre ferme (non inondée) en Guyane, où il fructifie en janvier/février/mars/novembre[8].
-Conceveiba guianensis est consommé par le daguet gris (Mazama gouazoubira) au Suriname[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Conceveiba guianensis croît dans les forêts sempervirentes primaires ou perturbées du Venezuela, autour de 50–1 000 m d'altitude, et dans le sous-étage des forêts de terre ferme (non inondée) en Guyane, où il fructifie en janvier/février/mars/novembre.
+Conceveiba guianensis est consommé par le daguet gris (Mazama gouazoubira) au Suriname.
 </t>
         </is>
       </c>
@@ -626,11 +644,13 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Conceveiba guianensis est utilisé comme bois de feu au Guyana[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Conceveiba guianensis est utilisé comme bois de feu au Guyana.
 Les fruits sont comestibles crus.
-Le bois de Conceveiba guianensis est mi-lourd (densité : 0,54 à 0,80)[10]. Il est de couleur blanc-jaunâtre à l'état frais, puis brunit en s'oxydant à l'air libre[4].
+Le bois de Conceveiba guianensis est mi-lourd (densité : 0,54 à 0,80). Il est de couleur blanc-jaunâtre à l'état frais, puis brunit en s'oxydant à l'air libre.
 </t>
         </is>
       </c>
@@ -659,11 +679,13 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Conceveiba guianensis a fait l'objet d'études chimiques[11].
-Les feuilles de Conceveiba guianensis contiennent des dérivés d'acide shikimique et d'acide gallique, des flavonoïdes (des O-glycosides de flavonol, et des C-glycosyl flavones, dont l'apigénine 8-C-(2"-galloyl)-bêta-D-glucopyranoside)[12].
-Conceveiba guianensis contient aussi des Polyprénols et des Triterpénoïdes[13]
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Conceveiba guianensis a fait l'objet d'études chimiques.
+Les feuilles de Conceveiba guianensis contiennent des dérivés d'acide shikimique et d'acide gallique, des flavonoïdes (des O-glycosides de flavonol, et des C-glycosyl flavones, dont l'apigénine 8-C-(2"-galloyl)-bêta-D-glucopyranoside).
+Conceveiba guianensis contient aussi des Polyprénols et des Triterpénoïdes
 </t>
         </is>
       </c>
@@ -692,9 +714,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[14] : 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « 1. CONCEVEIBA Guianenſis. (Tabula 353.)
 Arbor mediocris, trunco duodecim-pedali, ramos plures in ſummitate emittens. Folia alterna, ovato-oblonga, denticulata, acuminata, ſupernè glabra, infernè cinerea, petiolata. Stipulæ binæ, exiguæ, deciduæ. Flores ſpicati, terminales, alterni, ſolitarii. Scapus ſpicæ carnoſus, trigonus.
 Folia &amp; cortex ramorum vulnerata, ſuccum viridem effundunt.
